--- a/results_analysis/spark_motorFailure_02_hold_02_best.xlsx
+++ b/results_analysis/spark_motorFailure_02_hold_02_best.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB50228-FC4B-4150-BC99-AA5F92E08CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED15F5-7F77-4A6C-8308-7D47EE2508F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -104,34 +104,34 @@
     <t>v2</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - Accuracy (mean)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - Accuracy (mean)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - Accuracy (Median)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - Accuracy (std)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - #Prot (Best)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - Accuracy (Median)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - #Prot (Mean)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - #Prot (Best)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - K for KNN (Best)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - #Prot (Mean)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - K for KNN (Mean)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - K for KNN (Best)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - HP (best)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - K for KNN (Mean)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - MCC (Multiclass)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - HP (best)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - F1-Score (Macro-Averaged)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - MCC (Multiclass)</t>
   </si>
   <si>
-    <t>XX DataSet 0x - hold 0x - Accuracy (std)</t>
+    <t>Motor Failure DataSet 02 - hold 02 - F1-Score (Macro-Averaged)</t>
   </si>
 </sst>
 </file>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -1078,28 +1078,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.67677631578947395</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.92986842105263201</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.84743421052631596</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.93256578947368396</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.93013157894736898</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.72927631578947405</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.62138157894736901</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.93322368421052704</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.66171052631578997</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.72822368421052597</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.79973684210526297</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.94809210526315801</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.95901315789473596</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.69427631578947402</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.63171052631579006</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.97157894736842099</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1109,14 +1141,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.74243421052631597</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.92664473684210602</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.89565789473684199</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.93427631578947401</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.93322368421052604</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.86717105263157901</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.71809210526315803</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.93092105263157898</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -1124,14 +1172,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.705526315789474</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.72447368421052605</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.70986842105263204</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.95177631578947397</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.910657894736842</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.67098684210526305</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.96157894736842098</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1143,28 +1207,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.91342105263157902</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.86552631578947403</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.91342105263157902</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.93506578947368402</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.93453947368420998</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.92144736842105301</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.91328947368421098</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.93131578947368399</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.90578947368421103</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.825526315789474</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.88986842105263197</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.93934210526315798</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.99078947368421</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.89171052631578895</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.88611842105263205</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.64480263157894702</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1174,14 +1270,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.78710526315789497</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.92960526315789505</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.92118421052631605</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.93138157894736895</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.93342105263157904</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.92144736842105301</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.91263157894736902</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.93546052631579002</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -1189,14 +1301,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.92690789473684199</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.80973684210526298</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.93447368421052601</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.93151315789473699</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.77467105263157898</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.93230263157894699</v>
+      </c>
+      <c r="K12" s="56">
+        <v>0.97388157894736804</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1208,28 +1336,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.89421052631579001</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.89361842105263201</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.88447368421052697</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.892828947368421</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.88914473684210504</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.888618421052632</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.87052631578947404</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.88894736842105304</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.89651315789473696</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.99855263157894703</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.88131578947368405</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.90315789473684205</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.902236842105263</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.99927631578947396</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -1239,14 +1399,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.71743421052631595</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.51210526315789495</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.53039473684210503</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.539868421052632</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.89236842105263203</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.52092105263157895</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.52526315789473699</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -1254,14 +1430,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.54230263157894698</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.52559210526315803</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.893223684210527</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.52736842105263204</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.90763157894736901</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.54592105263157897</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.816513157894737</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.53901315789473703</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -1273,28 +1465,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.49921052631578899</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.62052631578947404</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.75131578947368405</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.50638157894736802</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.51223684210526299</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.56572368421052599</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.50486842105263197</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.710328947368421</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.91276315789473705</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.50243421052631598</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.60618421052631599</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.79684210526315802</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -1304,14 +1528,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.69223684210526304</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.92855263157894796</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.52144736842105299</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.93572368421052599</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.93171052631578899</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.53881578947368403</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.63322368421052599</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.53453947368421095</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -1319,14 +1559,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.66842105263157903</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.50013157894736804</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.51348684210526296</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.49855263157894703</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.700723684210526</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.52493421052631595</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.52907894736842098</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.52789473684210497</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
@@ -1691,7 +1947,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -1815,44 +2071,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="12">
+        <v>-0.125</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="28">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="D6" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-8</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="29">
+        <v>1</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -1862,22 +2182,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="31">
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -1885,22 +2237,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="D8" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="29">
+        <v>64</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-0.125</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="29">
+        <v>1</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1912,44 +2296,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="13"/>
+      <c r="D9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L9" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="13"/>
+      <c r="D10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L10" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -1959,22 +2407,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="13"/>
+      <c r="D11" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -1982,22 +2462,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="13"/>
+      <c r="D12" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="R12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.99099999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2009,44 +2521,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J13" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N13" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O13" s="31">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="P13" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="Q13" s="31">
+        <v>1.66015625E-2</v>
+      </c>
+      <c r="R13" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S13" s="13">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="13"/>
+      <c r="D14" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E14" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F14" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G14" s="31">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="H14" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I14" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="M14" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="N14" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="P14" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q14" s="31">
+        <v>8.7890625E-3</v>
+      </c>
+      <c r="R14" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2056,22 +2632,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="13"/>
+      <c r="D15" s="29">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="F15" s="29">
+        <v>64</v>
+      </c>
+      <c r="G15" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="H15" s="29">
+        <v>256</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J15" s="29">
+        <v>16</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.2509765625</v>
+      </c>
+      <c r="L15" s="29">
+        <v>8</v>
+      </c>
+      <c r="M15" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N15" s="29">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0.5009765625</v>
+      </c>
+      <c r="P15" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>512</v>
+      </c>
+      <c r="S15" s="13">
+        <v>2.0009765625</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -2079,22 +2687,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="13"/>
+      <c r="D16" s="29">
+        <v>128</v>
+      </c>
+      <c r="E16" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>1024</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H16" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>4</v>
+      </c>
+      <c r="K16" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="L16" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M16" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2</v>
+      </c>
+      <c r="O16" s="31">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="R16" s="29">
+        <v>32</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0.2509765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -2106,44 +2746,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="29">
+        <v>16</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>16</v>
+      </c>
+      <c r="G17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I17" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J17" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K17" s="31">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="M17" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="N17" s="29">
+        <v>-128</v>
+      </c>
+      <c r="O17" s="13">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="P17" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R17" s="29">
+        <v>8</v>
+      </c>
+      <c r="S17" s="29">
+        <v>128.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29"/>
+      <c r="D18" s="29">
+        <v>16</v>
+      </c>
+      <c r="E18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.5009765625</v>
+      </c>
+      <c r="H18" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="N18" s="31">
+        <v>-64</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="P18" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="R18" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S18" s="29">
+        <v>16.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -2153,22 +2857,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="13"/>
+      <c r="D19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G19" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I19" s="31">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="J19" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M19" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N19" s="30">
+        <v>-0.25</v>
+      </c>
+      <c r="O19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="P19" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0.5009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -2176,22 +2912,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="13"/>
+      <c r="D20" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E20" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G20" s="31">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="H20" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.5009765625</v>
+      </c>
+      <c r="J20" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K20" s="31">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="L20" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M20" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="N20" s="29">
+        <v>4</v>
+      </c>
+      <c r="O20" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0.5009765625</v>
+      </c>
+      <c r="R20" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0.5009765625</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -2518,7 +3286,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2586,14 +3354,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.62808869822982505</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.88534229317153101</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.974021534011414</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.52345456712187499</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.974021534011414</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -2601,14 +3385,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.56530099716107396</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.75531479462642803</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.86436475910440103</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.64057345129544596</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -2618,14 +3418,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.728812521130764</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.62737643442847801</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.94868329805051399</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -2633,14 +3449,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.72677352424528696</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.98692754243965397</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.63449817582036705</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.974021534011414</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.98692754243965397</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.56530099716107396</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.974021534011414</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2652,14 +3484,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.87603759078313304</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.974021534011414</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.96127552393233895</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -2667,14 +3515,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.90797333904448096</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.89973541084243702</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.98692754243965397</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.91177042132590602</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -2684,14 +3548,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.78181706812209195</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.96127552393233895</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -2699,14 +3579,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.974021534011414</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.69791236669060197</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -2718,14 +3614,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.88226657675981801</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.91177042132590602</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.89973541084243702</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.88782616210474796</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.87603759078313304</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.89973541084243702</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -2733,14 +3645,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.90986593794862103</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.89973541084243702</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.92137172136214895</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.91177042132590602</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2750,14 +3678,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.64748913978216505</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.46475800154489</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.40618119722996199</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.50616039662091095</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.51639777949432197</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.91177042132590602</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.36957457414391798</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.53678263125807202</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -2765,14 +3709,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.51639777949432197</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.46475800154489</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.485563958427288</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.92393643535979597</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.52660319441658099</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.77692131386312302</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.53678263125807202</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -2784,14 +3744,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.17159207034168</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.77638300005252803</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.71449576743370002</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.41137667560372099</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.23539595453459999</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.58747999401071704</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -2799,14 +3775,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.428383642081333</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.73709737708971901</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.422249421128568</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.57735026918962595</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -2816,14 +3808,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.61847459326218301</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.94868329805051399</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.45425676257949799</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.93623886368626197</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.96127552393233895</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.49518756847213802</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.57811094181093803</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.47519096331149102</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -2831,14 +3839,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.57735026918962595</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8.1378845877115899E-2</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.355874139608581</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.29277002188456003</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.84474188375752801</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.43328912241312101</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.46475800154489</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.392078423527843</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2865,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -2933,14 +3957,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.77215534862593704</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.94066363044892598</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.98683982683982696</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.75418506053586298</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.98683982683982696</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -2948,14 +3988,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.77380952380952395</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.87456022238630904</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.92725057651307496</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.78834838072137603</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -2965,14 +4021,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.861356035269079</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.79915433403805503</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.97366597366597396</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -2980,14 +4052,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.86154847104749499</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.99342076786564504</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.80679377602454505</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.98683982683982696</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.99342076786564504</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.77380952380952395</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.98683982683982696</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -2999,14 +4087,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.93392453486350202</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.98683982683982696</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.98025546655120199</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
@@ -3014,14 +4118,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.95394537505951604</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.94722222222222197</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.99342076786564504</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.953849490349165</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -3031,14 +4151,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.88776440950353996</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.98025546655120199</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -3046,14 +4182,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.98683982683982696</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.84862524355921198</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -3065,14 +4217,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.94076639965360498</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.953849490349165</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.94722222222222197</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.940581157972462</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.93392453486350202</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.94722222222222197</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3080,14 +4248,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.95389748255990303</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.94722222222222197</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.96051948051948099</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.953849490349165</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3097,14 +4281,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.82199089134678005</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.64024537506641499</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.66956521739130404</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.67550642819868101</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.68405139833711304</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.953849490349165</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.68371770417894895</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.70084348641049699</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -3112,14 +4312,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.68405139833711304</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.64024537506641499</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.65810002392917</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.96046471302236902</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.69249588332157097</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.888114310456809</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.70084348641049699</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3131,14 +4347,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.49280342646546099</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.88815305371596798</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.85486111111111096</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.593421834753319</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.58447238928376199</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.74124683689901105</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
@@ -3146,14 +4378,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.70804958966300002</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.86839826839826795</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.60305493964030599</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -3163,14 +4411,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.80920226810370899</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.97366597366597396</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.63113958454668995</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.96706963039993099</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.98025546655120199</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.68898809523809501</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.74294986059691903</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.64923076923076894</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -3178,14 +4442,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.77152961980548196</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.34778877510155098</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.65179894892871604</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.48821548821548799</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.92092942604473704</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.66071428571428603</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.64024537506641499</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.67469234884965201</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3199,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70709676-3CE0-413A-ADE2-61CCB6A4EC1D}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,7 +4499,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3278,28 +4558,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>4.8935324828970402E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1.8823451037527601E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>3.2021844875084103E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1.9376359777414E-2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1.9181446605963302E-2</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.196247425697642</v>
+      </c>
+      <c r="J5" s="12">
+        <v>6.4881931512513896E-2</v>
+      </c>
+      <c r="K5" s="53">
+        <v>1.8827050756148701E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>4.8644321776868601E-2</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.237986952950106</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3.4067607246627302E-2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1.75661491181297E-2</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1.7008760414323702E-2</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.18762139666724201</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7.2948954669746394E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1.5218729449910101E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3309,14 +4621,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>4.09562858691103E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2.0280372528411701E-2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2.5948055328095101E-2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1.76802661593785E-2</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1.89197098246634E-2</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.13619525364415699</v>
+      </c>
+      <c r="J7" s="13">
+        <v>4.1989380255327398E-2</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2.17597069944622E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -3324,14 +4652,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>4.3850876315613997E-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.208737499338782</v>
+      </c>
+      <c r="F8" s="14">
+        <v>4.45960899925106E-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>1.9414229361147301E-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1.7593629563724299E-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>5.9759402934789499E-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>4.8638164856542598E-2</v>
+      </c>
+      <c r="K8" s="56">
+        <v>1.6188688799209001E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -3343,28 +4687,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>2.40905250140039E-2</v>
+      </c>
+      <c r="E9" s="58">
+        <v>3.05779000992818E-2</v>
+      </c>
+      <c r="F9" s="58">
+        <v>2.40905250140039E-2</v>
+      </c>
+      <c r="G9" s="58">
+        <v>1.6132824288712901E-2</v>
+      </c>
+      <c r="H9" s="58">
+        <v>1.7849583986951401E-2</v>
+      </c>
+      <c r="I9" s="58">
+        <v>2.1278608432170699E-2</v>
+      </c>
+      <c r="J9" s="58">
+        <v>2.5819008465293398E-2</v>
+      </c>
+      <c r="K9" s="59">
+        <v>1.8639060842873499E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>2.9405299645134102E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.18675728694568999</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2.69335388032352E-2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>2.2472939664230199E-2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>9.0176896952939792E-3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>2.8230143761879101E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <v>2.9654250922563199E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.21977319978908499</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -3374,14 +4750,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>3.9490515638932903E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.8383515335316899E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2.3113584910983701E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1.9441233900904801E-2</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1.8306777008680799E-2</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2.09472876074729E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2.1650534127947201E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1.8316685244247399E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -3389,14 +4781,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>2.1887818621097E-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.19917804108560999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2.2750205280096299E-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2.1181304511731901E-2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1.01352807090275E-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>3.4042637462358097E-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>2.0620714754758601E-2</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1.7480322546222799E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -3408,28 +4816,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>2.72892774615279E-2</v>
+      </c>
+      <c r="E13" s="58">
+        <v>2.7118521684651099E-2</v>
+      </c>
+      <c r="F13" s="58">
+        <v>2.72514420235716E-2</v>
+      </c>
+      <c r="G13" s="58">
+        <v>3.10457911306239E-2</v>
+      </c>
+      <c r="H13" s="58">
+        <v>2.72041540822071E-2</v>
+      </c>
+      <c r="I13" s="58">
+        <v>2.58338207333869E-2</v>
+      </c>
+      <c r="J13" s="58">
+        <v>3.5036345963689902E-2</v>
+      </c>
+      <c r="K13" s="59">
+        <v>2.9112428734361599E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>2.6921118111114101E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7.1569584558245098E-3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3.1265053454796299E-2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>6.9209358938857497E-3</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2.6598034529546399E-2</v>
+      </c>
+      <c r="I14" s="13">
+        <v>2.5642980848040901E-2</v>
+      </c>
+      <c r="J14" s="13">
+        <v>3.3716736522406303E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <v>5.1127327423817403E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -3439,14 +4879,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>4.1179845136733097E-2</v>
+      </c>
+      <c r="E15" s="13">
+        <v>7.2248825832388203E-2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>6.8700738018948507E-2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>7.2755958153424102E-2</v>
+      </c>
+      <c r="H15" s="13">
+        <v>7.9051853594174396E-2</v>
+      </c>
+      <c r="I15" s="13">
+        <v>2.95630717137997E-2</v>
+      </c>
+      <c r="J15" s="13">
+        <v>6.5070365501456895E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <v>8.2905811771257595E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -3454,14 +4910,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>7.8091312793622497E-2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>7.05785806067252E-2</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2.8773689383898501E-2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>7.2030650539093299E-2</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2.5692376535409699E-2</v>
+      </c>
+      <c r="I16" s="14">
+        <v>7.4953117779406095E-2</v>
+      </c>
+      <c r="J16" s="14">
+        <v>3.5826246373420002E-2</v>
+      </c>
+      <c r="K16" s="56">
+        <v>8.1101304239129798E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -3473,28 +4945,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>2.1573662816830302E-2</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.127116927159549</v>
+      </c>
+      <c r="F17" s="58">
+        <v>4.1985475537761399E-2</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0</v>
+      </c>
+      <c r="I17" s="58">
+        <v>2.5496534554605401E-2</v>
+      </c>
+      <c r="J17" s="58">
+        <v>1.8818805221864E-2</v>
+      </c>
+      <c r="K17" s="59">
+        <v>7.1149877090077404E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>3.0092206062715302E-2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>7.6907769957818395E-2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>2.2473717826583101E-2</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>1.5412130016446901E-2</v>
+      </c>
+      <c r="J18" s="13">
+        <v>6.7915025466582804E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.244956827497505</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -3504,14 +5008,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>4.7197362288830702E-2</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.8678893448653699E-2</v>
+      </c>
+      <c r="F19" s="13">
+        <v>7.5537864475196295E-2</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1.8176756916774998E-2</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1.9295073684518601E-2</v>
+      </c>
+      <c r="I19" s="13">
+        <v>8.0262722129528799E-2</v>
+      </c>
+      <c r="J19" s="13">
+        <v>7.1955682276060903E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <v>7.1571875285857206E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -3519,14 +5039,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>5.3094719303723503E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>9.25692724580848E-4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>6.5097201738580607E-2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>4.2897949345299002E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.11337565051903201</v>
+      </c>
+      <c r="I20" s="14">
+        <v>7.5819061865349105E-2</v>
+      </c>
+      <c r="J20" s="14">
+        <v>7.4895933098200404E-2</v>
+      </c>
+      <c r="K20" s="56">
+        <v>6.9241694568456594E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
@@ -3891,7 +5427,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -3950,28 +5486,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="13">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.93092105263157898</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.84210526315789502</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.93421052631579005</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="13">
+        <v>0.66447368421052599</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.51315789473684204</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.80263157894736903</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.75328947368421095</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.65131578947368396</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.97368421052631604</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -3981,14 +5549,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13">
+        <v>0.74342105263157898</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.91776315789473695</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.71710526315789502</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.93421052631579005</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -3996,14 +5580,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="13">
+        <v>0.69736842105263197</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.83223684210526305</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.91776315789473695</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.67105263157894701</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.96052631578947401</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -4015,28 +5615,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.91118421052631604</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.92763157894736903</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="13">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.89144736842105299</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.9375</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.51315789473684204</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -4046,14 +5678,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.79276315789473695</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.93421052631579005</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -4061,14 +5709,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.95065789473684204</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.98026315789473695</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -4080,28 +5744,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.87171052631579005</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.88815789473684204</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.90131578947368396</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.88157894736842102</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -4111,14 +5807,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.71710526315789502</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.50657894736842102</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.51644736842105299</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.89473684210526305</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.51315789473684204</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.51973684210526305</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -4126,14 +5838,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="13">
+        <v>0.53618421052631604</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.50657894736842102</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.89144736842105299</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.51973684210526305</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.90789473684210498</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.53947368421052599</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.81578947368421095</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.52631578947368396</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -4145,28 +5873,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.57894736842105299</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.75657894736842102</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.53289473684210498</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.69407894736842102</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.91447368421052599</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.61513157894736803</v>
+      </c>
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -4176,14 +5936,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="13">
+        <v>0.69078947368421095</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.50986842105263197</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.52631578947368396</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.65131578947368396</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.52631578947368396</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -4191,14 +5967,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.67105263157894701</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.52302631578947401</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.51315789473684204</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.51973684210526305</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.51973684210526305</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -4464,28 +6256,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="52">
+        <v>0.78289473684210498</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.75657894736842102</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0.98684210526315796</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="54">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.92763157894736903</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.79605263157894701</v>
+      </c>
+      <c r="K6" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -4495,14 +6319,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="54">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.80263157894736903</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.97368421052631604</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -4510,14 +6350,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="55">
+        <v>0.86184210526315796</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.80921052631579005</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="K8" s="56">
+        <v>0.98684210526315796</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -4529,28 +6385,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="57">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="E9" s="58">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="F9" s="58">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="H9" s="58">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="I9" s="58">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="J9" s="58">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="K9" s="59">
+        <v>0.98026315789473695</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="54">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.99342105263157898</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -4560,14 +6448,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="54">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.98026315789473695</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -4575,14 +6479,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="55">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.84868421052631604</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="K12" s="56">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -4594,28 +6514,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="57">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="E13" s="58">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="F13" s="58">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="H13" s="58">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="I13" s="58">
+        <v>0.94078947368421095</v>
+      </c>
+      <c r="J13" s="58">
+        <v>0.93421052631579005</v>
+      </c>
+      <c r="K13" s="59">
+        <v>0.94736842105263197</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="54">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.94736842105263197</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -4625,14 +6577,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="54">
+        <v>0.82236842105263197</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.67763157894736903</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.70394736842105299</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.95394736842105299</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.72368421052631604</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -4640,14 +6608,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="55">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.67763157894736903</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.69078947368421095</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.71710526315789502</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0.72368421052631604</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -4659,28 +6643,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="57">
+        <v>0.55921052631579005</v>
+      </c>
+      <c r="E17" s="58">
+        <v>0.88815789473684204</v>
+      </c>
+      <c r="F17" s="58">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="58">
+        <v>0.64473684210526305</v>
+      </c>
+      <c r="J17" s="58">
+        <v>0.60526315789473695</v>
+      </c>
+      <c r="K17" s="59">
+        <v>0.75657894736842102</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="54">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.65131578947368396</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="K18" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -4690,14 +6706,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="54">
+        <v>0.80921052631579005</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.67105263157894701</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.96710526315789502</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.98026315789473695</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.71052631578947401</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.75657894736842102</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.68421052631579005</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -4705,14 +6737,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="55">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.50657894736842102</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.66447368421052599</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.57894736842105299</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.92105263157894701</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.68421052631579005</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.67763157894736903</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0.68421052631579005</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
@@ -5077,7 +7125,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -5136,28 +7184,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19">
+        <v>218</v>
+      </c>
+      <c r="F5" s="19">
+        <v>131</v>
+      </c>
+      <c r="G5" s="19">
+        <v>238</v>
+      </c>
+      <c r="H5" s="19">
+        <v>240</v>
+      </c>
+      <c r="I5" s="19">
+        <v>197</v>
+      </c>
+      <c r="J5" s="19">
+        <v>14</v>
+      </c>
+      <c r="K5" s="19">
+        <v>267</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>14</v>
+      </c>
+      <c r="E6" s="19">
+        <v>273</v>
+      </c>
+      <c r="F6" s="19">
+        <v>99</v>
+      </c>
+      <c r="G6" s="19">
+        <v>223</v>
+      </c>
+      <c r="H6" s="19">
+        <v>219</v>
+      </c>
+      <c r="I6" s="19">
+        <v>281</v>
+      </c>
+      <c r="J6" s="19">
+        <v>10</v>
+      </c>
+      <c r="K6" s="19">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5167,14 +7247,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>43</v>
+      </c>
+      <c r="E7" s="19">
+        <v>218</v>
+      </c>
+      <c r="F7" s="19">
+        <v>161</v>
+      </c>
+      <c r="G7" s="19">
+        <v>216</v>
+      </c>
+      <c r="H7" s="19">
+        <v>217</v>
+      </c>
+      <c r="I7" s="19">
+        <v>281</v>
+      </c>
+      <c r="J7" s="19">
+        <v>29</v>
+      </c>
+      <c r="K7" s="19">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -5182,14 +7278,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>30</v>
+      </c>
+      <c r="E8" s="19">
+        <v>281</v>
+      </c>
+      <c r="F8" s="19">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19">
+        <v>218</v>
+      </c>
+      <c r="H8" s="19">
+        <v>221</v>
+      </c>
+      <c r="I8" s="19">
+        <v>281</v>
+      </c>
+      <c r="J8" s="19">
+        <v>31</v>
+      </c>
+      <c r="K8" s="19">
+        <v>214</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -5201,28 +7313,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>191</v>
+      </c>
+      <c r="E9" s="19">
+        <v>164</v>
+      </c>
+      <c r="F9" s="19">
+        <v>177</v>
+      </c>
+      <c r="G9" s="19">
+        <v>218</v>
+      </c>
+      <c r="H9" s="19">
+        <v>217</v>
+      </c>
+      <c r="I9" s="19">
+        <v>281</v>
+      </c>
+      <c r="J9" s="19">
+        <v>189</v>
+      </c>
+      <c r="K9" s="19">
+        <v>216</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>193</v>
+      </c>
+      <c r="E10" s="19">
+        <v>218</v>
+      </c>
+      <c r="F10" s="19">
+        <v>152</v>
+      </c>
+      <c r="G10" s="19">
+        <v>217</v>
+      </c>
+      <c r="H10" s="19">
+        <v>216</v>
+      </c>
+      <c r="I10" s="19">
+        <v>281</v>
+      </c>
+      <c r="J10" s="19">
+        <v>154</v>
+      </c>
+      <c r="K10" s="19">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -5232,14 +7376,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>55</v>
+      </c>
+      <c r="E11" s="19">
+        <v>218</v>
+      </c>
+      <c r="F11" s="19">
+        <v>160</v>
+      </c>
+      <c r="G11" s="19">
+        <v>199</v>
+      </c>
+      <c r="H11" s="19">
+        <v>216</v>
+      </c>
+      <c r="I11" s="19">
+        <v>281</v>
+      </c>
+      <c r="J11" s="19">
+        <v>160</v>
+      </c>
+      <c r="K11" s="19">
+        <v>218</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -5247,14 +7407,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>176</v>
+      </c>
+      <c r="E12" s="19">
+        <v>218</v>
+      </c>
+      <c r="F12" s="19">
+        <v>182</v>
+      </c>
+      <c r="G12" s="19">
+        <v>215</v>
+      </c>
+      <c r="H12" s="19">
+        <v>217</v>
+      </c>
+      <c r="I12" s="19">
+        <v>281</v>
+      </c>
+      <c r="J12" s="19">
+        <v>182</v>
+      </c>
+      <c r="K12" s="19">
+        <v>217</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -5266,28 +7442,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>78</v>
+      </c>
+      <c r="E13" s="19">
+        <v>81</v>
+      </c>
+      <c r="F13" s="19">
+        <v>73</v>
+      </c>
+      <c r="G13" s="19">
+        <v>75</v>
+      </c>
+      <c r="H13" s="19">
+        <v>76</v>
+      </c>
+      <c r="I13" s="19">
+        <v>72</v>
+      </c>
+      <c r="J13" s="19">
+        <v>71</v>
+      </c>
+      <c r="K13" s="19">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>77</v>
+      </c>
+      <c r="E14" s="19">
+        <v>45</v>
+      </c>
+      <c r="F14" s="19">
+        <v>76</v>
+      </c>
+      <c r="G14" s="19">
+        <v>48</v>
+      </c>
+      <c r="H14" s="19">
+        <v>81</v>
+      </c>
+      <c r="I14" s="19">
+        <v>72</v>
+      </c>
+      <c r="J14" s="19">
+        <v>77</v>
+      </c>
+      <c r="K14" s="19">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -5297,14 +7505,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>21</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>78</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -5312,14 +7536,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>80</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>70</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>73</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -5331,28 +7571,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>6</v>
+      </c>
+      <c r="E17" s="19">
+        <v>61</v>
+      </c>
+      <c r="F17" s="19">
+        <v>94</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>172</v>
+      </c>
+      <c r="J17" s="19">
+        <v>9</v>
+      </c>
+      <c r="K17" s="19">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>29</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>88</v>
+      </c>
+      <c r="G18" s="19">
+        <v>145</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>177</v>
+      </c>
+      <c r="J18" s="19">
+        <v>8</v>
+      </c>
+      <c r="K18" s="19">
+        <v>249</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -5362,14 +7634,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>26</v>
+      </c>
+      <c r="E19" s="19">
+        <v>218</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>226</v>
+      </c>
+      <c r="H19" s="19">
+        <v>218</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>10</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -5377,14 +7665,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>22</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>138</v>
+      </c>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -5591,7 +7895,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -5650,28 +7954,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>24.3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>217</v>
+      </c>
+      <c r="F5" s="19">
+        <v>133.66999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>241.25</v>
+      </c>
+      <c r="H5" s="19">
+        <v>240.13</v>
+      </c>
+      <c r="I5" s="19">
+        <v>126.93</v>
+      </c>
+      <c r="J5" s="19">
+        <v>11.05</v>
+      </c>
+      <c r="K5" s="19">
+        <v>272.75</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>15.85</v>
+      </c>
+      <c r="E6" s="19">
+        <v>271.88</v>
+      </c>
+      <c r="F6" s="19">
+        <v>100.65</v>
+      </c>
+      <c r="G6" s="19">
+        <v>227.56</v>
+      </c>
+      <c r="H6" s="19">
+        <v>217.4</v>
+      </c>
+      <c r="I6" s="19">
+        <v>115.33</v>
+      </c>
+      <c r="J6" s="19">
+        <v>11.09</v>
+      </c>
+      <c r="K6" s="19">
+        <v>217.02</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -5681,14 +8017,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>40.07</v>
+      </c>
+      <c r="E7" s="19">
+        <v>217.09</v>
+      </c>
+      <c r="F7" s="19">
+        <v>160.04</v>
+      </c>
+      <c r="G7" s="19">
+        <v>217.02</v>
+      </c>
+      <c r="H7" s="19">
+        <v>216.47</v>
+      </c>
+      <c r="I7" s="19">
+        <v>259.88</v>
+      </c>
+      <c r="J7" s="19">
+        <v>31.21</v>
+      </c>
+      <c r="K7" s="19">
+        <v>217.02</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -5696,14 +8048,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>26.9</v>
+      </c>
+      <c r="E8" s="19">
+        <v>281</v>
+      </c>
+      <c r="F8" s="19">
+        <v>28.58</v>
+      </c>
+      <c r="G8" s="19">
+        <v>216.97</v>
+      </c>
+      <c r="H8" s="19">
+        <v>220.93</v>
+      </c>
+      <c r="I8" s="19">
+        <v>278.93</v>
+      </c>
+      <c r="J8" s="19">
+        <v>28.14</v>
+      </c>
+      <c r="K8" s="19">
+        <v>215.9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -5715,28 +8083,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>186.36</v>
+      </c>
+      <c r="E9" s="19">
+        <v>163.99</v>
+      </c>
+      <c r="F9" s="19">
+        <v>184.94</v>
+      </c>
+      <c r="G9" s="19">
+        <v>217.03</v>
+      </c>
+      <c r="H9" s="19">
+        <v>216.94</v>
+      </c>
+      <c r="I9" s="19">
+        <v>281</v>
+      </c>
+      <c r="J9" s="19">
+        <v>184.8</v>
+      </c>
+      <c r="K9" s="19">
+        <v>216.22</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>185.34</v>
+      </c>
+      <c r="E10" s="19">
+        <v>216.95</v>
+      </c>
+      <c r="F10" s="19">
+        <v>153.34</v>
+      </c>
+      <c r="G10" s="19">
+        <v>217.06</v>
+      </c>
+      <c r="H10" s="19">
+        <v>217.06</v>
+      </c>
+      <c r="I10" s="19">
+        <v>281</v>
+      </c>
+      <c r="J10" s="19">
+        <v>150.79</v>
+      </c>
+      <c r="K10" s="19">
+        <v>216.91</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -5746,14 +8146,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>52.48</v>
+      </c>
+      <c r="E11" s="19">
+        <v>216.62</v>
+      </c>
+      <c r="F11" s="19">
+        <v>155.61000000000001</v>
+      </c>
+      <c r="G11" s="19">
+        <v>199.82</v>
+      </c>
+      <c r="H11" s="19">
+        <v>216.06</v>
+      </c>
+      <c r="I11" s="19">
+        <v>281</v>
+      </c>
+      <c r="J11" s="19">
+        <v>157.27000000000001</v>
+      </c>
+      <c r="K11" s="19">
+        <v>216.9</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -5761,14 +8177,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>172.52</v>
+      </c>
+      <c r="E12" s="19">
+        <v>216.99</v>
+      </c>
+      <c r="F12" s="19">
+        <v>179.53</v>
+      </c>
+      <c r="G12" s="19">
+        <v>216.69</v>
+      </c>
+      <c r="H12" s="19">
+        <v>217.06</v>
+      </c>
+      <c r="I12" s="19">
+        <v>281</v>
+      </c>
+      <c r="J12" s="19">
+        <v>180.85</v>
+      </c>
+      <c r="K12" s="19">
+        <v>217.17</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -5780,28 +8212,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>69.77</v>
+      </c>
+      <c r="E13" s="19">
+        <v>71.48</v>
+      </c>
+      <c r="F13" s="19">
+        <v>68.819999999999993</v>
+      </c>
+      <c r="G13" s="19">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="H13" s="19">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="I13" s="19">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="J13" s="19">
+        <v>65.56</v>
+      </c>
+      <c r="K13" s="19">
+        <v>70.099999999999994</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>69.58</v>
+      </c>
+      <c r="E14" s="19">
+        <v>44.96</v>
+      </c>
+      <c r="F14" s="19">
+        <v>76.3</v>
+      </c>
+      <c r="G14" s="19">
+        <v>47.07</v>
+      </c>
+      <c r="H14" s="19">
+        <v>72.459999999999994</v>
+      </c>
+      <c r="I14" s="19">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J14" s="19">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="K14" s="19">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -5811,14 +8275,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>69.56</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -5826,14 +8306,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>69.59</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>68.98</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -5845,28 +8341,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1.21</v>
+      </c>
+      <c r="E17" s="19">
+        <v>29.99</v>
+      </c>
+      <c r="F17" s="19">
+        <v>89.42</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>173.61</v>
+      </c>
+      <c r="J17" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="K17" s="19">
+        <v>45.44</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>1.77</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>69.83</v>
+      </c>
+      <c r="G18" s="19">
+        <v>146.52000000000001</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>176.13</v>
+      </c>
+      <c r="J18" s="19">
+        <v>7.14</v>
+      </c>
+      <c r="K18" s="19">
+        <v>242.4</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -5876,14 +8404,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>24.2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>215.4</v>
+      </c>
+      <c r="F19" s="19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="19">
+        <v>222.17</v>
+      </c>
+      <c r="H19" s="19">
+        <v>216.67</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="19">
+        <v>13.5</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -5891,14 +8435,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>26.93</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2.04</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>75.819999999999993</v>
+      </c>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -6105,7 +8665,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -6164,28 +8724,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6195,14 +8787,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -6210,14 +8818,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -6229,28 +8853,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>7</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -6260,14 +8916,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -6275,14 +8947,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -6294,28 +8982,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -6325,14 +9045,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -6340,14 +9076,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>6</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -6359,28 +9111,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19">
+        <v>4</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -6390,14 +9174,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -6405,14 +9205,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>7</v>
+      </c>
+      <c r="I20" s="19">
+        <v>8</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -6619,7 +9435,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -6678,28 +9494,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>7</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5</v>
+      </c>
+      <c r="K6" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -6709,14 +9557,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -6724,14 +9588,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>7</v>
+      </c>
+      <c r="H8" s="19">
+        <v>6</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>7</v>
+      </c>
+      <c r="K8" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -6743,28 +9623,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>7</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -6774,14 +9686,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -6789,14 +9717,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>9</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -6808,28 +9752,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>7</v>
+      </c>
+      <c r="H14" s="19">
+        <v>3</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2</v>
+      </c>
+      <c r="K14" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -6839,14 +9815,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -6854,14 +9846,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>6</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -6873,28 +9881,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>3</v>
+      </c>
+      <c r="H18" s="19">
+        <v>4</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -6904,14 +9944,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -6919,14 +9975,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>7</v>
+      </c>
+      <c r="I20" s="19">
+        <v>8</v>
+      </c>
+      <c r="J20" s="19">
+        <v>3</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
@@ -7135,7 +10207,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -7245,38 +10317,90 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="D5" s="50">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="38">
+        <v>3</v>
+      </c>
+      <c r="I5" s="38">
+        <v>128</v>
+      </c>
+      <c r="J5" s="38">
+        <v>2</v>
+      </c>
+      <c r="K5" s="38">
+        <v>3</v>
+      </c>
+      <c r="L5" s="38">
+        <v>4</v>
+      </c>
+      <c r="M5" s="33">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N5" s="36">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="38">
+        <v>2</v>
+      </c>
+      <c r="P5" s="39">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="15"/>
+      <c r="D6" s="41">
+        <v>4</v>
+      </c>
+      <c r="E6" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="29">
+        <v>3</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M6" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N6" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
@@ -7286,19 +10410,45 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="44"/>
+      <c r="D7" s="41">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8</v>
+      </c>
+      <c r="H7" s="29">
+        <v>3</v>
+      </c>
+      <c r="I7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L7" s="29">
+        <v>16</v>
+      </c>
+      <c r="M7" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N7" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O7" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P7" s="44">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
@@ -7306,19 +10456,45 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="44"/>
+      <c r="D8" s="41">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F8" s="29">
+        <v>2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>4</v>
+      </c>
+      <c r="H8" s="29">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="J8" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K8" s="29">
+        <v>2</v>
+      </c>
+      <c r="L8" s="29">
+        <v>32</v>
+      </c>
+      <c r="M8" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N8" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="P8" s="44">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -7330,38 +10506,90 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="43"/>
+      <c r="D9" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="29">
+        <v>4</v>
+      </c>
+      <c r="G9" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>8</v>
+      </c>
+      <c r="J9" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L9" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M9" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N9" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O9" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P9" s="43">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="44"/>
+      <c r="D10" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E10" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I10" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J10" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="L10" s="29">
+        <v>1</v>
+      </c>
+      <c r="M10" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="29">
+        <v>8</v>
+      </c>
+      <c r="P10" s="44">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
@@ -7371,19 +10599,45 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="34"/>
+      <c r="D11" s="41">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I11" s="29">
+        <v>32</v>
+      </c>
+      <c r="J11" s="29">
+        <v>2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="L11" s="29">
+        <v>256</v>
+      </c>
+      <c r="M11" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N11" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O11" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P11" s="34">
+        <v>3.125E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
@@ -7391,19 +10645,45 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="43"/>
+      <c r="D12" s="41">
+        <v>4</v>
+      </c>
+      <c r="E12" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I12" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="J12" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="29">
+        <v>256</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P12" s="43">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -7415,38 +10695,90 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="45"/>
+      <c r="D13" s="41">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I13" s="29">
+        <v>4</v>
+      </c>
+      <c r="J13" s="32">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L13" s="29">
+        <v>4</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="N13" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O13" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P13" s="45">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="15"/>
+      <c r="D14" s="41">
+        <v>8</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="29">
+        <v>2</v>
+      </c>
+      <c r="I14" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="J14" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K14" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="L14" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M14" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="O14" s="29">
+        <v>2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -7456,19 +10788,45 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="43"/>
+      <c r="D15" s="41">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="29">
+        <v>8</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>64</v>
+      </c>
+      <c r="J15" s="29">
+        <v>512</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L15" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1</v>
+      </c>
+      <c r="N15" s="30">
+        <v>0.05</v>
+      </c>
+      <c r="O15" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P15" s="43">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
@@ -7476,19 +10834,45 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="D16" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>128</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I16" s="29">
+        <v>1</v>
+      </c>
+      <c r="J16" s="32">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>256</v>
+      </c>
+      <c r="M16" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="P16" s="45">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -7500,38 +10884,90 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="45"/>
+      <c r="D17" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E17" s="29">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="G17" s="29">
+        <v>4</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="I17" s="29">
+        <v>32</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
+      <c r="L17" s="29">
+        <v>512</v>
+      </c>
+      <c r="M17" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N17" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O17" s="29">
+        <v>1</v>
+      </c>
+      <c r="P17" s="45">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="15"/>
+      <c r="D18" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2</v>
+      </c>
+      <c r="G18" s="29">
+        <v>2</v>
+      </c>
+      <c r="H18" s="29">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29">
+        <v>8</v>
+      </c>
+      <c r="J18" s="32">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K18" s="29">
+        <v>2</v>
+      </c>
+      <c r="L18" s="29">
+        <v>1024</v>
+      </c>
+      <c r="M18" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="N18" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O18" s="29">
+        <v>4</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -7541,19 +10977,45 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="44"/>
+      <c r="D19" s="40">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="29">
+        <v>2</v>
+      </c>
+      <c r="G19" s="29">
+        <v>8</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="J19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="L19" s="29">
+        <v>256</v>
+      </c>
+      <c r="M19" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N19" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1</v>
+      </c>
+      <c r="P19" s="44">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
@@ -7561,19 +11023,45 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="51"/>
+      <c r="D20" s="42">
+        <v>8</v>
+      </c>
+      <c r="E20" s="35">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F20" s="49">
+        <v>4</v>
+      </c>
+      <c r="G20" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="H20" s="48">
+        <v>2.8</v>
+      </c>
+      <c r="I20" s="35">
+        <v>3.125E-2</v>
+      </c>
+      <c r="J20" s="35">
+        <v>3.125E-2</v>
+      </c>
+      <c r="K20" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="49">
+        <v>256</v>
+      </c>
+      <c r="M20" s="35">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O20" s="46">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P20" s="51">
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
